--- a/2205_금형요약_001/금형_001_개발목록초안_전완호_220525.xlsx
+++ b/2205_금형요약_001/금형_001_개발목록초안_전완호_220525.xlsx
@@ -4,43 +4,98 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="771"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="771" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="전체구성도" sheetId="2" r:id="rId1"/>
-    <sheet name="업체별협력요약" sheetId="5" r:id="rId2"/>
-    <sheet name="전체요약문서" sheetId="12" r:id="rId3"/>
+    <sheet name="개발목록" sheetId="12" r:id="rId2"/>
+    <sheet name="업체별협력요약" sheetId="5" r:id="rId3"/>
     <sheet name="(1)무엇을 (2)" sheetId="9" r:id="rId4"/>
-    <sheet name="(2)만들내용" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>자료관리시스템</t>
+    <t>협업관리WEB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자료등록</t>
+    <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자료변환</t>
+    <t>회원가입/수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자료권한</t>
+    <t>협업관리WEB 관리자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자료검색</t>
+    <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>협업시스템</t>
+    <t>금형모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델등록 및 파일등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD와 Asset 모두 등록이 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 테이블 정의 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 테이블 정의 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델공개권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본 Asset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,832 +165,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>144300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="타원 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3895725" y="982500"/>
-          <a:ext cx="2238374" cy="2189324"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>금형서버</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>379064</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>525214</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="타원 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4065239" y="3333749"/>
-          <a:ext cx="831950" cy="819151"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>모델</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>등록</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="원통 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5534025" y="542925"/>
-          <a:ext cx="1524000" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Database</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>금형데이타베이스</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180389</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122691</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="타원 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7543800" y="1018589"/>
-          <a:ext cx="1200150" cy="1181686"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>협업툴</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>유니티</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123239</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="타원 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7419975" y="3476039"/>
-          <a:ext cx="1200150" cy="1181686"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>협업툴</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>유니티</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>170864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="타원 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7743825" y="2266364"/>
-          <a:ext cx="1200150" cy="1181686"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>협업툴</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>유니티</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104189</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="타원 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4438650" y="5342939"/>
-          <a:ext cx="1200150" cy="1181686"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>협업툴</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>유티티</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="원통 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2990850" y="561975"/>
-          <a:ext cx="1524000" cy="866774"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>스토리지</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>금형모델데이타</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="왼쪽/오른쪽 화살표 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3910013" y="4567237"/>
-          <a:ext cx="1119188" cy="500062"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>598139</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>58489</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="타원 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2912714" y="2362199"/>
-          <a:ext cx="831950" cy="819151"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>회원</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>관리</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>617189</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>77539</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="타원 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6360764" y="2447924"/>
-          <a:ext cx="831950" cy="819151"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>회의실</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>641503</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>141271</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>604383</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53286</xdr:rowOff>
+      <xdr:colOff>652523</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167093</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="7"/>
-          <a:endCxn id="6" idx="3"/>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="46" idx="5"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7070878" y="2027221"/>
-          <a:ext cx="648680" cy="540665"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8609466" y="4297507"/>
+          <a:ext cx="529832" cy="270136"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -964,29 +216,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>641503</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3863</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122691</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>113540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>480558</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>86743</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>653619</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13064</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="5"/>
-          <a:endCxn id="7" idx="1"/>
+          <a:stCxn id="46" idx="7"/>
+          <a:endCxn id="47" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7070878" y="3147113"/>
-          <a:ext cx="524855" cy="501980"/>
+        <a:xfrm flipV="1">
+          <a:off x="8609466" y="3466340"/>
+          <a:ext cx="530928" cy="318624"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1015,29 +267,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>77539</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133057</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548216</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>672528</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120284</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="6"/>
-          <a:endCxn id="9" idx="2"/>
+          <a:stCxn id="45" idx="1"/>
+          <a:endCxn id="46" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7192714" y="2857207"/>
-          <a:ext cx="551111" cy="293"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8349191" y="4403658"/>
+          <a:ext cx="124312" cy="536276"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1066,178 +318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47039</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="타원 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="971550" y="3609389"/>
-          <a:ext cx="1200150" cy="1181686"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>협업툴</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>유티티</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/WEB)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1252539</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="왼쪽/오른쪽 화살표 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19095113">
-          <a:off x="1938339" y="3157538"/>
-          <a:ext cx="1119188" cy="500062"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1590675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1246,8 +336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="2143125"/>
-          <a:ext cx="2047875" cy="1114425"/>
+          <a:off x="2419350" y="5162550"/>
+          <a:ext cx="2438400" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1404,16 +494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1422,8 +512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="5400675"/>
-          <a:ext cx="2438400" cy="1104900"/>
+          <a:off x="2419350" y="6353174"/>
+          <a:ext cx="2438400" cy="1314451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1466,254 +556,165 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>모델데이타 변환</a:t>
+            <a:t>모델리스트 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>공용</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>개인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>모델</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 정보 등록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>수정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>파일업로드</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>변환된 모델데이타 정보등록</a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>- CAD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>/</a:t>
+            <a:t>Data</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>관리</a:t>
+            <a:t> 업로드 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>변환된 모델데이타 파일 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>UP/DOWN</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>207614</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>353764</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="타원 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5265389" y="3333749"/>
-          <a:ext cx="831950" cy="819151"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>I/F</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>(</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>파이썬</a:t>
+            <a:t>사출유동해석용</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>?)</a:t>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="왼쪽/오른쪽 화살표 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="5081588" y="4557712"/>
-          <a:ext cx="1119188" cy="500062"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="직사각형 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="5448300"/>
-          <a:ext cx="2438400" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>유사 데이터 추천 시스템</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>AI</a:t>
+            <a:t>Asset</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t> </a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Data</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>검색</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>Thumnail </a:t>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 업로드</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>검색</a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(AI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>기반검색용</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
@@ -1723,16 +724,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1741,8 +742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9048750" y="1133475"/>
-          <a:ext cx="2438400" cy="1343025"/>
+          <a:off x="10325099" y="1895475"/>
+          <a:ext cx="3743325" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,50 +774,1873 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>회의진행</a:t>
+            <a:t>회의실</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>다중기기지원 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(PC,Mobile,HMD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>등</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>방리스트</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>방방만들기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>비밀번호설정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>초대</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>방장인계</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>텍스트 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>&amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>음성채팅지원 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>화상회의 지원안함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참여인력 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>2D </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>아바타로 말풍선 지원</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548216</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>206126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>682053</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>116463</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="직선 화살표 연결선 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8349191" y="3139826"/>
+          <a:ext cx="133837" cy="538987"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180131</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>343999</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>174595</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="107" name="그룹 106"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7981106" y="2247315"/>
+          <a:ext cx="2221268" cy="3585130"/>
+          <a:chOff x="8221222" y="2498293"/>
+          <a:chExt cx="2510268" cy="4051577"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="타원 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9530102" y="4529667"/>
+            <a:ext cx="1200150" cy="1181686"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>협업툴</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>유니티</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="타원 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8612690" y="2498293"/>
+            <a:ext cx="1200150" cy="1181686"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>협업툴</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>유니티</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="타원 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8601925" y="5368184"/>
+            <a:ext cx="1200150" cy="1181686"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>협업툴</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>유니티</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="타원 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8221222" y="4116038"/>
+            <a:ext cx="831950" cy="819152"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>회의실</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="타원 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9531340" y="3285078"/>
+            <a:ext cx="1200150" cy="1181686"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>협업툴</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>유니티</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>112306</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="109" name="그룹 108"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5600700" y="1604706"/>
+          <a:ext cx="2300955" cy="5213200"/>
+          <a:chOff x="4933950" y="1719006"/>
+          <a:chExt cx="2600323" cy="5891468"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="타원 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6181725" y="1719006"/>
+            <a:ext cx="1352548" cy="1367092"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>금형데이타 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>AI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>검색</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>파이선</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t>?)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="타원 41"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6181725" y="5871906"/>
+            <a:ext cx="1352548" cy="1367092"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>시뮬레이션서버</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>확인중</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="타원 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6181725" y="3795456"/>
+            <a:ext cx="1352548" cy="1367092"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>협업</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>플랫폼</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>서버</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="원통 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4953000" y="4591050"/>
+            <a:ext cx="1524000" cy="876300"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Database</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>협업플랫폼</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DB</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="원통 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5000625" y="6743700"/>
+            <a:ext cx="1524000" cy="866774"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>스토리지</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CAD Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="원통 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4933950" y="2552700"/>
+            <a:ext cx="1524000" cy="866774"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>스토리지</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Asset Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="왼쪽/오른쪽 화살표 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="6477005" y="5267325"/>
+            <a:ext cx="709610" cy="500062"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftRightArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 24169"/>
+              <a:gd name="adj2" fmla="val 39237"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="왼쪽/오른쪽 화살표 105"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="6496056" y="3200400"/>
+            <a:ext cx="709610" cy="500062"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftRightArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 28474"/>
+              <a:gd name="adj2" fmla="val 34932"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27941</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4809</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="116" name="그룹 115"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685801" y="3207352"/>
+          <a:ext cx="5085715" cy="2874407"/>
+          <a:chOff x="-91387" y="3181147"/>
+          <a:chExt cx="5747398" cy="3248385"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="타원 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="457200" y="3923714"/>
+            <a:ext cx="1200150" cy="1181686"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>협업툴</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>유니티</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="타원 109"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2924175" y="3904664"/>
+            <a:ext cx="1200150" cy="1181686"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>협업관리</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>WEB</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="왼쪽/오른쪽 화살표 110"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="19480169">
+            <a:off x="4136790" y="3307260"/>
+            <a:ext cx="1519221" cy="585034"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftRightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="왼쪽/오른쪽 화살표 111"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="3162171">
+            <a:off x="4150010" y="5392572"/>
+            <a:ext cx="1476117" cy="597803"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftRightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="왼쪽/오른쪽 화살표 112"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4305300" y="4295775"/>
+            <a:ext cx="1119188" cy="500062"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftRightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="직사각형 113"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-91387" y="3181147"/>
+            <a:ext cx="2292786" cy="659526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>모델관리</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>Cad</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t> Data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>를 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t>Asset Data </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>로 변환</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="오른쪽 화살표 114"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1857375" y="4248150"/>
+            <a:ext cx="819150" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="직사각형 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="1362075"/>
+          <a:ext cx="2438400" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>검색서버 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>파이선</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>??)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>회의내용기록및공유</a:t>
+            <a:t>입력 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>원본 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Asset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> Data</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>출력 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>유사한 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>Asset Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>목록</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="직사각형 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="6962775"/>
+          <a:ext cx="2438400" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>사출유동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 시뮬레이션 서버 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(???)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>회의의견반영기능</a:t>
+            <a:t>입력 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>원본 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Cad Data, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>주입구 위치</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>텍스트및음성채팅</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>화상회의 </a:t>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>출력 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>??</a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>확인할것</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>!!!</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1825,26 +2649,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="직사각형 57"/>
+        <xdr:cNvPr id="120" name="직사각형 119"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9077325" y="2838450"/>
-          <a:ext cx="2438400" cy="1619249"/>
+          <a:off x="10353674" y="6124575"/>
+          <a:ext cx="3724275" cy="1400175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1875,24 +2699,384 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>회의진행</a:t>
+            <a:t>기록회의내용기록 및 공유</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>채팅 내용 자동저장</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>중요 이벤트는 시스템 메시지로 채팅창에 표시 및 저장</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>모델선택</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>주입구 설정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>시뮬레이션 실행</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회의</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>요약</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>결론 등의 정보 추가 입력가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="직사각형 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334624" y="3333751"/>
+          <a:ext cx="3743325" cy="1104899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>모델가져오기</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>모델리스트 표시 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>공용모델</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>개인모델</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>모델불러오기</a:t>
+            <a:t>사용자는 개인모델을 선택해서 사용할 수 있음</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>해당 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Asset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이 없는 참가자는 자동으로 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Asset </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>다운로드</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="직사각형 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10344150" y="4505325"/>
+          <a:ext cx="3733800" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>모델제어</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>Ai </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>유사데이타 리스트 표시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1906,7 +3090,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>주입구설정</a:t>
+            <a:t>주입구 설정</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
@@ -1914,7 +3098,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>사출유동해석</a:t>
+            <a:t>사출유동해석 시뮬레이션 요청</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
@@ -1922,9 +3106,1083 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>해석결과표시</a:t>
+            <a:t>서버로부터 사출유동해석 결과 받아서 표시</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="직사각형 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="8886826"/>
+          <a:ext cx="2438400" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>회의관리</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>회의로그목록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자신이 참여한</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 회의</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회의로그보기</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="직사각형 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="7724775"/>
+          <a:ext cx="2438400" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>모델검색</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>기반검색으로 유사데이타 추천</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>썸네일검색</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>카테고리검색</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="사각형 설명선 125"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="9353550"/>
+          <a:ext cx="1685925" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64250"/>
+            <a:gd name="adj2" fmla="val -19326"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>음성</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>저장여부</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>화상 채팅은 지원안함</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="사각형 설명선 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="6343651"/>
+          <a:ext cx="1924050" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 61046"/>
+            <a:gd name="adj2" fmla="val -22403"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>공용모델은 전체공개</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>개인모델은 본인것과 소속이 같은 사람에게만 공개</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회의실에서는 공유가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="사각형 설명선 151"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14182725" y="5029200"/>
+          <a:ext cx="2409825" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64250"/>
+            <a:gd name="adj2" fmla="val -19326"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>협업서버에 요청하면 협업서버는 시뮬레이션 서버에 요청후 리턴값을 받아 회의실에 전달</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="사각형 설명선 152"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="7639051"/>
+          <a:ext cx="1924050" cy="895349"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65006"/>
+            <a:gd name="adj2" fmla="val -65506"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>CAD </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>원본은 시뮬레이션 서버에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Asset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>은 검색서버에 각각 저장해야 한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="사각형 설명선 153"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="8220075"/>
+          <a:ext cx="1685925" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64250"/>
+            <a:gd name="adj2" fmla="val -19326"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>협업서버에 요청하면 협업서버가 검색서버에 요청후 리턴값을 표시</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="사각형 설명선 154"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="2619376"/>
+          <a:ext cx="2409825" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64250"/>
+            <a:gd name="adj2" fmla="val -19326"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>아바타는 최대한 간단하게</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>얼굴과 말풍선만 표시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="사각형 설명선 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14211300" y="3686175"/>
+          <a:ext cx="2409825" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64250"/>
+            <a:gd name="adj2" fmla="val -19326"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에셋이 없는 경우 자동 로딩</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>데이타 서버에서 읽어 온다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>로딩 완료전까지 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>Unknown </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>모델을 데신 표시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="사각형 설명선 156"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14201775" y="5981700"/>
+          <a:ext cx="2409825" cy="628649"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67412"/>
+            <a:gd name="adj2" fmla="val -58652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>시뮬레이션 결과는 포맷이 이미지인지 확인 필요</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="사각형 설명선 157"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14163675" y="7010400"/>
+          <a:ext cx="2409825" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67412"/>
+            <a:gd name="adj2" fmla="val -58652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회의기록은 텍스트 위주로  최대한 간단하게 구현한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="사각형 설명선 158"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="7600950"/>
+          <a:ext cx="2409825" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26659"/>
+            <a:gd name="adj2" fmla="val -84882"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>방장은 전체적인 리포팅 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>참가자는 코멘트 작성가능 </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1996,7 +4254,7 @@
         <xdr:cNvPr id="4" name="그룹 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{37F9C046-0783-4B55-A3E3-7918939AEFE1}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{37F9C046-0783-4B55-A3E3-7918939AEFE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,7 +4273,7 @@
           <xdr:cNvPr id="5" name="TextBox 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{251CAE01-CBF5-44DA-85F7-59BB64815DD4}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{251CAE01-CBF5-44DA-85F7-59BB64815DD4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2199,7 +4457,7 @@
           <xdr:cNvPr id="6" name="그룹 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{129B9DA1-8202-4849-A4F9-96B202F66D92}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{129B9DA1-8202-4849-A4F9-96B202F66D92}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2218,7 +4476,7 @@
             <xdr:cNvPr id="7" name="그룹 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0F889EC2-C9C2-41B2-8691-8758DC136592}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0F889EC2-C9C2-41B2-8691-8758DC136592}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2237,7 +4495,7 @@
               <xdr:cNvPr id="9" name="사각형: 둥근 모서리 31">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E411B144-8E55-4AF2-89B9-520B2E327CF3}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E411B144-8E55-4AF2-89B9-520B2E327CF3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2392,7 +4650,7 @@
               <xdr:cNvPr id="10" name="사각형: 둥근 모서리 32">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{90841F91-5F9E-4AF2-BF6E-38F3C5B60BC9}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{90841F91-5F9E-4AF2-BF6E-38F3C5B60BC9}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2561,7 +4819,7 @@
               <xdr:cNvPr id="11" name="TextBox 33">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00FB997D-34C4-4F42-AB48-84618C30C48E}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{00FB997D-34C4-4F42-AB48-84618C30C48E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2718,7 +4976,7 @@
             <xdr:cNvPr id="8" name="TextBox 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{8261E75E-BE98-43AB-A4C4-634A336D701D}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{8261E75E-BE98-43AB-A4C4-634A336D701D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2984,7 +5242,7 @@
         <xdr:cNvPr id="12" name="그룹 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{037A4742-42A8-47F3-AB1A-23E1D2ABCE92}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{037A4742-42A8-47F3-AB1A-23E1D2ABCE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +5261,7 @@
           <xdr:cNvPr id="13" name="TextBox 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D690A68C-9E4D-4207-BC88-54FC877BDE86}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D690A68C-9E4D-4207-BC88-54FC877BDE86}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3465,7 +5723,7 @@
           <xdr:cNvPr id="14" name="그룹 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9F10F866-659C-4BAB-8EF3-CDD689BB2AE9}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9F10F866-659C-4BAB-8EF3-CDD689BB2AE9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3484,7 +5742,7 @@
             <xdr:cNvPr id="15" name="사각형: 둥근 모서리 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7EE7692D-03D0-4F6F-8853-0F294F737B3E}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7EE7692D-03D0-4F6F-8853-0F294F737B3E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3639,7 +5897,7 @@
             <xdr:cNvPr id="16" name="TextBox 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B61361EC-E16E-4971-953B-36100F2DAC3A}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B61361EC-E16E-4971-953B-36100F2DAC3A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3813,7 +6071,7 @@
             <xdr:cNvPr id="17" name="그룹 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{34B9DECB-574F-45D5-A896-0B3009662372}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{34B9DECB-574F-45D5-A896-0B3009662372}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3832,7 +6090,7 @@
               <xdr:cNvPr id="18" name="사각형: 둥근 모서리 25">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{506AF361-1E82-49D1-B732-412FA9F27797}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{506AF361-1E82-49D1-B732-412FA9F27797}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4001,7 +6259,7 @@
               <xdr:cNvPr id="19" name="TextBox 26">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1B50F9C2-088D-4544-9864-6A084C41E415}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1B50F9C2-088D-4544-9864-6A084C41E415}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4175,7 +6433,7 @@
         <xdr:cNvPr id="20" name="그룹 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7E0F8A08-4406-49C0-840C-AF44915D8D41}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7E0F8A08-4406-49C0-840C-AF44915D8D41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4194,7 +6452,7 @@
           <xdr:cNvPr id="21" name="TextBox 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0DE39F55-B29F-4432-B358-F0AB3981540D}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0DE39F55-B29F-4432-B358-F0AB3981540D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4450,7 +6708,7 @@
           <xdr:cNvPr id="22" name="그룹 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B99BA0DA-013E-4B37-B50A-1DDCE94AB3F8}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B99BA0DA-013E-4B37-B50A-1DDCE94AB3F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4469,7 +6727,7 @@
             <xdr:cNvPr id="23" name="사각형: 둥근 모서리 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{380B0F75-D79C-404B-B493-126672784B25}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{380B0F75-D79C-404B-B493-126672784B25}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4624,7 +6882,7 @@
             <xdr:cNvPr id="24" name="TextBox 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F9A52742-6EB5-443A-8A1E-AC491D10BB7B}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{F9A52742-6EB5-443A-8A1E-AC491D10BB7B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4773,7 +7031,7 @@
             <xdr:cNvPr id="25" name="그룹 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{A122E6BE-9D05-4541-8B47-255E202F38BF}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{A122E6BE-9D05-4541-8B47-255E202F38BF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4792,7 +7050,7 @@
               <xdr:cNvPr id="26" name="사각형: 둥근 모서리 18">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E07E88FD-2022-4950-BABB-B625031B7262}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E07E88FD-2022-4950-BABB-B625031B7262}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4961,7 +7219,7 @@
               <xdr:cNvPr id="27" name="TextBox 19">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5E16C9AD-9EC6-4688-8BBF-6D1E11F41E99}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5E16C9AD-9EC6-4688-8BBF-6D1E11F41E99}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5135,7 +7393,7 @@
         <xdr:cNvPr id="28" name="그룹 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AC0FAF9B-F391-49F0-9C6C-CB9ED8F04353}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{AC0FAF9B-F391-49F0-9C6C-CB9ED8F04353}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5154,7 +7412,7 @@
           <xdr:cNvPr id="29" name="TextBox 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7DBDA1F6-3B22-4F58-8669-0C071CE3E952}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7DBDA1F6-3B22-4F58-8669-0C071CE3E952}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5539,7 +7797,7 @@
           <xdr:cNvPr id="30" name="그룹 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1BEDA275-4934-44C2-95F4-AD7E644EF8D4}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1BEDA275-4934-44C2-95F4-AD7E644EF8D4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5558,7 +7816,7 @@
             <xdr:cNvPr id="31" name="사각형: 둥근 모서리 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{FC7F3675-56B7-4093-8117-64FDE94B100A}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{FC7F3675-56B7-4093-8117-64FDE94B100A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5713,7 +7971,7 @@
             <xdr:cNvPr id="32" name="TextBox 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{718BEF2C-9BF3-4857-9E90-25D9B9B8F1F2}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{718BEF2C-9BF3-4857-9E90-25D9B9B8F1F2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5851,7 +8109,7 @@
             <xdr:cNvPr id="33" name="그룹 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B970F5BB-B7FC-4B89-8E98-2E6E0546C180}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B970F5BB-B7FC-4B89-8E98-2E6E0546C180}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5870,7 +8128,7 @@
               <xdr:cNvPr id="34" name="사각형: 둥근 모서리 11">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0330679C-C3BA-4758-A863-4DF58137E960}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0330679C-C3BA-4758-A863-4DF58137E960}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6039,7 +8297,7 @@
               <xdr:cNvPr id="35" name="TextBox 12">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4A241476-653F-48B5-828A-8F4D4B87B16A}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4A241476-653F-48B5-828A-8F4D4B87B16A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6213,7 +8471,7 @@
         <xdr:cNvPr id="36" name="그룹 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{BE228117-78B8-4A38-AAF2-7E04C3F21C4A}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{BE228117-78B8-4A38-AAF2-7E04C3F21C4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6232,7 +8490,7 @@
           <xdr:cNvPr id="37" name="그룹 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CC2BEB18-E766-4CEC-A57D-80876AA629BD}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CC2BEB18-E766-4CEC-A57D-80876AA629BD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6251,7 +8509,7 @@
             <xdr:cNvPr id="127" name="그룹 126">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B83582CC-BF57-4EFA-AB90-5634A481E75D}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B83582CC-BF57-4EFA-AB90-5634A481E75D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6270,7 +8528,7 @@
               <xdr:cNvPr id="153" name="양쪽 모서리가 둥근 사각형 152">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{042E7F9B-A83F-4DD0-88E2-AA33CA89D3AD}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{042E7F9B-A83F-4DD0-88E2-AA33CA89D3AD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6415,7 +8673,7 @@
               <xdr:cNvPr id="154" name="TextBox 145">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{29D96300-BDF8-44C9-9458-AFB86A8D0979}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{29D96300-BDF8-44C9-9458-AFB86A8D0979}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6569,7 +8827,7 @@
               <xdr:cNvPr id="155" name="그룹 154">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E2CC67A4-2246-4F9B-8289-8BCADF443EA3}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E2CC67A4-2246-4F9B-8289-8BCADF443EA3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6588,7 +8846,7 @@
                 <xdr:cNvPr id="156" name="직사각형 155">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E8EC52FA-056D-4CB8-BBFD-CA767F5CBB00}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E8EC52FA-056D-4CB8-BBFD-CA767F5CBB00}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6737,7 +8995,7 @@
                 <xdr:cNvPr id="157" name="직선 연결선 156">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{50E670FD-CD0E-4747-B887-ACB4DA1E53FE}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{50E670FD-CD0E-4747-B887-ACB4DA1E53FE}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -6779,7 +9037,7 @@
             <xdr:cNvPr id="128" name="그룹 127">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4F8A38FA-E4F2-441C-8BC3-9C11F6E7F755}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4F8A38FA-E4F2-441C-8BC3-9C11F6E7F755}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6798,7 +9056,7 @@
               <xdr:cNvPr id="151" name="모서리가 둥근 직사각형 150">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{69B06506-A5DC-4B5A-9E48-EE85DDEE6A2B}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{69B06506-A5DC-4B5A-9E48-EE85DDEE6A2B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6952,7 +9210,7 @@
               <xdr:cNvPr id="152" name="TextBox 142">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{2476DB24-6872-4F69-A2AF-6BB623DD09AD}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{2476DB24-6872-4F69-A2AF-6BB623DD09AD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7107,7 +9365,7 @@
             <xdr:cNvPr id="129" name="그룹 128">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CE9BBDAA-6D08-4BE9-9A5F-F176DFE771D8}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CE9BBDAA-6D08-4BE9-9A5F-F176DFE771D8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7126,7 +9384,7 @@
               <xdr:cNvPr id="149" name="모서리가 둥근 직사각형 148">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{8FF63C15-A73C-4583-BBE7-33047705E09F}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{8FF63C15-A73C-4583-BBE7-33047705E09F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7280,7 +9538,7 @@
               <xdr:cNvPr id="150" name="TextBox 140">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4D10F8EC-3816-4B73-8915-44FF38195590}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4D10F8EC-3816-4B73-8915-44FF38195590}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7435,7 +9693,7 @@
             <xdr:cNvPr id="130" name="그룹 129">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{006DA4DC-D6A6-48F1-A9D1-F11EF9D1AFB8}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{006DA4DC-D6A6-48F1-A9D1-F11EF9D1AFB8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7454,7 +9712,7 @@
               <xdr:cNvPr id="147" name="모서리가 둥근 직사각형 146">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E6D07206-4D75-416E-9714-AA38977B3EC2}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E6D07206-4D75-416E-9714-AA38977B3EC2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7608,7 +9866,7 @@
               <xdr:cNvPr id="148" name="TextBox 138">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{67FA9F03-FDEA-4D92-9916-449B169D2B0C}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{67FA9F03-FDEA-4D92-9916-449B169D2B0C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7763,7 +10021,7 @@
             <xdr:cNvPr id="131" name="TextBox 51">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{46A02D19-4332-4FEE-AA30-D2BB75C4EC79}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{46A02D19-4332-4FEE-AA30-D2BB75C4EC79}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7955,7 +10213,7 @@
             <xdr:cNvPr id="132" name="직선 연결선 131">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{DF53EDD0-0FBA-4F84-992F-6A9EB36DC6DF}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{DF53EDD0-0FBA-4F84-992F-6A9EB36DC6DF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8004,7 +10262,7 @@
             <xdr:cNvPr id="133" name="직선 연결선 132">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7C0408A7-6462-456D-81FB-06B5AEFA959F}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7C0408A7-6462-456D-81FB-06B5AEFA959F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8053,7 +10311,7 @@
             <xdr:cNvPr id="134" name="직선 연결선 133">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{49426EB0-6DEF-4923-B173-D16BC7C11366}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{49426EB0-6DEF-4923-B173-D16BC7C11366}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8102,7 +10360,7 @@
             <xdr:cNvPr id="135" name="직선 연결선 134">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4A60F954-0844-4889-BFDB-5855E9BD1DAF}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4A60F954-0844-4889-BFDB-5855E9BD1DAF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8151,7 +10409,7 @@
             <xdr:cNvPr id="136" name="그림 135">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5C0EE239-7C1A-487D-A7A7-0820ADE6B7E9}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5C0EE239-7C1A-487D-A7A7-0820ADE6B7E9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8186,7 +10444,7 @@
             <xdr:cNvPr id="137" name="그림 136">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5F439796-0EAC-4F9E-969D-0FF1C1F6CE0B}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5F439796-0EAC-4F9E-969D-0FF1C1F6CE0B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8221,7 +10479,7 @@
             <xdr:cNvPr id="138" name="그림 137">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0F00230B-0197-45DF-8EB3-DF3B7AD6A3B1}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0F00230B-0197-45DF-8EB3-DF3B7AD6A3B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8256,7 +10514,7 @@
             <xdr:cNvPr id="139" name="그림 138">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{62940FF4-C2F7-4428-868E-EAE7A31FC2AE}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{62940FF4-C2F7-4428-868E-EAE7A31FC2AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8291,7 +10549,7 @@
             <xdr:cNvPr id="140" name="직사각형 139">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{56D41311-C226-48E5-A285-2720F155E5C0}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{56D41311-C226-48E5-A285-2720F155E5C0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8444,7 +10702,7 @@
             <xdr:cNvPr id="141" name="직사각형 140">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9CCBA8CE-7B5D-4114-805C-C56B2AF3DACB}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9CCBA8CE-7B5D-4114-805C-C56B2AF3DACB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8597,7 +10855,7 @@
             <xdr:cNvPr id="142" name="직사각형 141">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{C6E9DFC7-0694-4FA6-9E01-B4A0982DC0AA}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{C6E9DFC7-0694-4FA6-9E01-B4A0982DC0AA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8750,7 +11008,7 @@
             <xdr:cNvPr id="143" name="직사각형 142">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{DDDB052D-E4C7-4DFA-A094-0DA74638ABD1}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{DDDB052D-E4C7-4DFA-A094-0DA74638ABD1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8903,7 +11161,7 @@
             <xdr:cNvPr id="144" name="TextBox 66">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{60C038E9-B12C-4C72-A51B-D561112040C9}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{60C038E9-B12C-4C72-A51B-D561112040C9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9079,7 +11337,7 @@
             <xdr:cNvPr id="145" name="TextBox 67">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3D910381-F148-44AE-8C80-0EE03EE15B10}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{3D910381-F148-44AE-8C80-0EE03EE15B10}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9255,7 +11513,7 @@
             <xdr:cNvPr id="146" name="TextBox 68">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9B2A348B-3DE5-4722-99BA-1A4B96A98727}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9B2A348B-3DE5-4722-99BA-1A4B96A98727}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9432,7 +11690,7 @@
           <xdr:cNvPr id="38" name="그룹 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AF93F83B-8318-4799-900D-23D9A4A2DDD5}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{AF93F83B-8318-4799-900D-23D9A4A2DDD5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9451,7 +11709,7 @@
             <xdr:cNvPr id="39" name="그룹 38">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9F4892B0-39C6-4CA0-9F0F-1AB9E2F05D51}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9F4892B0-39C6-4CA0-9F0F-1AB9E2F05D51}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9470,7 +11728,7 @@
               <xdr:cNvPr id="125" name="그림 124">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3A6D35F3-9D28-4E2C-AD3B-EDA40285DE8B}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{3A6D35F3-9D28-4E2C-AD3B-EDA40285DE8B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9505,7 +11763,7 @@
               <xdr:cNvPr id="126" name="그림 125">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{119BCDE0-EDF0-4636-9C04-C0DB5A6CF7B6}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{119BCDE0-EDF0-4636-9C04-C0DB5A6CF7B6}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9541,7 +11799,7 @@
             <xdr:cNvPr id="40" name="그룹 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E668AC33-B7E0-410F-AD07-E82C34ED06DC}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E668AC33-B7E0-410F-AD07-E82C34ED06DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9560,7 +11818,7 @@
               <xdr:cNvPr id="123" name="그림 122">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B105231F-7ABD-4B86-9ABE-A74A9A371A1F}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B105231F-7ABD-4B86-9ABE-A74A9A371A1F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9595,7 +11853,7 @@
               <xdr:cNvPr id="124" name="그림 123">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0AD27F41-AADF-4F0A-A3FE-1F90BBABB5CD}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0AD27F41-AADF-4F0A-A3FE-1F90BBABB5CD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9631,7 +11889,7 @@
             <xdr:cNvPr id="41" name="그룹 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7E0B40BC-6688-406F-A4BC-02B0FB9FEC3C}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7E0B40BC-6688-406F-A4BC-02B0FB9FEC3C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9650,7 +11908,7 @@
               <xdr:cNvPr id="121" name="그림 120">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{39C62E63-390A-4818-93CE-67265EC4E483}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{39C62E63-390A-4818-93CE-67265EC4E483}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9685,7 +11943,7 @@
               <xdr:cNvPr id="122" name="그림 121">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1CC7AA91-426E-4DFB-A1BF-94265D0C3CA4}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1CC7AA91-426E-4DFB-A1BF-94265D0C3CA4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9721,7 +11979,7 @@
             <xdr:cNvPr id="42" name="그룹 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CFEBB250-7501-41A2-AA78-5EA7D41556D0}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CFEBB250-7501-41A2-AA78-5EA7D41556D0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9740,7 +11998,7 @@
               <xdr:cNvPr id="119" name="그림 118">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9058F734-EE67-4351-9522-CCBAA101BC2F}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9058F734-EE67-4351-9522-CCBAA101BC2F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9775,7 +12033,7 @@
               <xdr:cNvPr id="120" name="그림 119">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0B42AAA5-31EF-426D-9305-40545EF791CE}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0B42AAA5-31EF-426D-9305-40545EF791CE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9811,7 +12069,7 @@
             <xdr:cNvPr id="43" name="직사각형 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5861503E-C02A-468E-8326-166A81AE313D}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5861503E-C02A-468E-8326-166A81AE313D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9951,7 +12209,7 @@
             <xdr:cNvPr id="44" name="직사각형 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AE476840-B02B-4948-83DA-D15F239537E6}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{AE476840-B02B-4948-83DA-D15F239537E6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10091,7 +12349,7 @@
             <xdr:cNvPr id="45" name="직사각형 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E9D3BAAA-AAA1-4AF0-837F-3D2CC100A40B}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E9D3BAAA-AAA1-4AF0-837F-3D2CC100A40B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10263,7 +12521,7 @@
             <xdr:cNvPr id="46" name="직사각형 45">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D7980D25-AC23-4DE0-A6E6-4DD30B9E0E4A}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D7980D25-AC23-4DE0-A6E6-4DD30B9E0E4A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10403,7 +12661,7 @@
             <xdr:cNvPr id="47" name="연결선: 꺾임 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{27D91671-9917-4A68-88E3-E17659CA070A}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{27D91671-9917-4A68-88E3-E17659CA070A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10454,7 +12712,7 @@
             <xdr:cNvPr id="48" name="연결선: 꺾임 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E0D78086-35E2-48B1-937A-C723CD64BC31}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E0D78086-35E2-48B1-937A-C723CD64BC31}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10505,7 +12763,7 @@
             <xdr:cNvPr id="49" name="직선 연결선 48">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{2EC70B21-DCF5-445A-9F58-810C2F60A673}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{2EC70B21-DCF5-445A-9F58-810C2F60A673}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10554,7 +12812,7 @@
             <xdr:cNvPr id="50" name="직선 연결선 49">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{492F0536-E7A7-4F54-B208-C6734AE26E5E}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{492F0536-E7A7-4F54-B208-C6734AE26E5E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10603,7 +12861,7 @@
             <xdr:cNvPr id="51" name="그룹 50">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7EB619D4-2D1F-42BC-A6B3-F48F324F4E2C}"/>
+                  <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7EB619D4-2D1F-42BC-A6B3-F48F324F4E2C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10622,7 +12880,7 @@
               <xdr:cNvPr id="52" name="사각형: 둥근 모서리 70">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{920E033B-C3DE-4ED5-99F0-7360C0970229}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{920E033B-C3DE-4ED5-99F0-7360C0970229}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10772,7 +13030,7 @@
               <xdr:cNvPr id="53" name="그룹 52">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{40A09285-2602-448A-B3B0-EB793999E33E}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{40A09285-2602-448A-B3B0-EB793999E33E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10791,7 +13049,7 @@
                 <xdr:cNvPr id="114" name="양쪽 모서리가 둥근 사각형 113">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AB22F163-9330-4E21-9039-6EA325B3373F}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{AB22F163-9330-4E21-9039-6EA325B3373F}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -10936,7 +13194,7 @@
                 <xdr:cNvPr id="115" name="TextBox 133">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CC06650B-E3B9-4596-99A9-1DB78915127A}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CC06650B-E3B9-4596-99A9-1DB78915127A}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -11077,7 +13335,7 @@
                 <xdr:cNvPr id="116" name="그룹 115">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6E858C77-0998-4392-83D7-632A4B12177C}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{6E858C77-0998-4392-83D7-632A4B12177C}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -11096,7 +13354,7 @@
                   <xdr:cNvPr id="117" name="직사각형 116">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{12F48890-F87B-4D39-95F5-9873D87B21A6}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{12F48890-F87B-4D39-95F5-9873D87B21A6}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -11245,7 +13503,7 @@
                   <xdr:cNvPr id="118" name="직선 연결선 117">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{407E8F79-46EE-4522-A319-D6034ED5942D}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{407E8F79-46EE-4522-A319-D6034ED5942D}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -11289,7 +13547,7 @@
               <xdr:cNvPr id="54" name="그룹 53">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{143A1E59-A780-4DB6-A8A2-88B0A29608C0}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{143A1E59-A780-4DB6-A8A2-88B0A29608C0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11308,7 +13566,7 @@
                 <xdr:cNvPr id="109" name="양쪽 모서리가 둥근 사각형 108">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{A5AE207A-CBDC-4387-81EF-3EC9717903FA}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{A5AE207A-CBDC-4387-81EF-3EC9717903FA}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -11453,7 +13711,7 @@
                 <xdr:cNvPr id="110" name="TextBox 128">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3FB900FC-9A40-4807-A598-B5C03A757968}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{3FB900FC-9A40-4807-A598-B5C03A757968}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -11623,7 +13881,7 @@
                 <xdr:cNvPr id="111" name="그룹 110">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7F2F8DBB-BFA4-4B81-B0B3-D21A71671638}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{7F2F8DBB-BFA4-4B81-B0B3-D21A71671638}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -11642,7 +13900,7 @@
                   <xdr:cNvPr id="112" name="직사각형 111">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{30FD6B2C-7D52-4D30-BAEA-4BFC0C9DC342}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{30FD6B2C-7D52-4D30-BAEA-4BFC0C9DC342}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -11791,7 +14049,7 @@
                   <xdr:cNvPr id="113" name="직선 연결선 112">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{20708AE4-B895-4004-B9E8-E11333271D09}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{20708AE4-B895-4004-B9E8-E11333271D09}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -11835,7 +14093,7 @@
               <xdr:cNvPr id="55" name="그룹 54">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B5AFDEA7-868F-4244-84FE-D7815A413567}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B5AFDEA7-868F-4244-84FE-D7815A413567}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11854,7 +14112,7 @@
                 <xdr:cNvPr id="107" name="TextBox 125">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5F4D99E2-98C7-4EC3-A360-BFB37F63FE8D}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5F4D99E2-98C7-4EC3-A360-BFB37F63FE8D}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -12077,7 +14335,7 @@
                 <xdr:cNvPr id="108" name="TextBox 126">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E4525784-AD23-4D41-B3DA-CD047C9FB736}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E4525784-AD23-4D41-B3DA-CD047C9FB736}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -12369,7 +14627,7 @@
               <xdr:cNvPr id="56" name="화살표: 왼쪽/오른쪽 74">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6DB22DAF-FC25-48C6-963B-A16EF76449AA}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{6DB22DAF-FC25-48C6-963B-A16EF76449AA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12531,7 +14789,7 @@
               <xdr:cNvPr id="57" name="그룹 56">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{EFD0BE00-383B-43DD-8AFA-07DCB8E54FA2}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{EFD0BE00-383B-43DD-8AFA-07DCB8E54FA2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12550,7 +14808,7 @@
                 <xdr:cNvPr id="95" name="모서리가 둥근 직사각형 94">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1397B8C7-F1CF-404B-8230-8ACB7D1653BC}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1397B8C7-F1CF-404B-8230-8ACB7D1653BC}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -12707,7 +14965,7 @@
                 <xdr:cNvPr id="96" name="TextBox 114">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{BBE61510-CC43-4516-AB85-ECBA195982AB}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{BBE61510-CC43-4516-AB85-ECBA195982AB}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -12880,7 +15138,7 @@
                 <xdr:cNvPr id="97" name="모서리가 둥근 직사각형 96">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{C8B39CB6-05BE-401F-9786-99E751A7F1C3}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{C8B39CB6-05BE-401F-9786-99E751A7F1C3}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13037,7 +15295,7 @@
                 <xdr:cNvPr id="98" name="모서리가 둥근 직사각형 97">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F8857F27-5B1C-4793-A9BA-D9FC7338569E}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{F8857F27-5B1C-4793-A9BA-D9FC7338569E}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13194,7 +15452,7 @@
                 <xdr:cNvPr id="99" name="모서리가 둥근 직사각형 98">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D6798A78-4A92-4F09-B1AA-B9DDA1A7B2B8}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D6798A78-4A92-4F09-B1AA-B9DDA1A7B2B8}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13351,7 +15609,7 @@
                 <xdr:cNvPr id="100" name="모서리가 둥근 직사각형 99">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{281C85D6-2AA1-46EF-B46C-E1F356888ABB}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{281C85D6-2AA1-46EF-B46C-E1F356888ABB}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13508,7 +15766,7 @@
                 <xdr:cNvPr id="101" name="모서리가 둥근 직사각형 100">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{887EF55E-7996-4AEB-AFE3-87079CC46DB6}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{887EF55E-7996-4AEB-AFE3-87079CC46DB6}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13665,7 +15923,7 @@
                 <xdr:cNvPr id="102" name="TextBox 120">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{87659683-E57F-4219-B078-CECF43E5EFEE}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{87659683-E57F-4219-B078-CECF43E5EFEE}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13838,7 +16096,7 @@
                 <xdr:cNvPr id="103" name="TextBox 121">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E94D1053-51D1-4A97-B7A0-D6F6734EE39E}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E94D1053-51D1-4A97-B7A0-D6F6734EE39E}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -13992,7 +16250,7 @@
                 <xdr:cNvPr id="104" name="TextBox 122">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D8149951-EED8-48EC-BED1-73EE3E1B1327}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D8149951-EED8-48EC-BED1-73EE3E1B1327}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -14194,7 +16452,7 @@
                 <xdr:cNvPr id="105" name="TextBox 123">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E1D1B522-3AD1-42E0-98D1-6CE5BDFBA48E}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{E1D1B522-3AD1-42E0-98D1-6CE5BDFBA48E}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -14367,7 +16625,7 @@
                 <xdr:cNvPr id="106" name="TextBox 124">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CC5297D4-645A-49E4-A3FE-D7CC9416ABE3}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{CC5297D4-645A-49E4-A3FE-D7CC9416ABE3}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -14570,7 +16828,7 @@
               <xdr:cNvPr id="58" name="그룹 57">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0958CC88-A41D-491A-A24B-F085F10FFA30}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0958CC88-A41D-491A-A24B-F085F10FFA30}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -14589,7 +16847,7 @@
                 <xdr:cNvPr id="91" name="그룹 90">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D7FF2455-89A5-4FD0-B7C7-8AE63FF9E948}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D7FF2455-89A5-4FD0-B7C7-8AE63FF9E948}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -14611,7 +16869,7 @@
                   <xdr:cNvPr id="93" name="타원 92">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{55372EB1-2E4E-45A5-95FD-10F60D2C948D}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{55372EB1-2E4E-45A5-95FD-10F60D2C948D}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -14754,7 +17012,7 @@
                   <xdr:cNvPr id="94" name="직사각형 93">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{72C3382B-8419-41B3-855B-AD980C307CDB}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{72C3382B-8419-41B3-855B-AD980C307CDB}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -14898,7 +17156,7 @@
                 <xdr:cNvPr id="92" name="타원 91">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{C9E80261-E6D3-4040-93D4-825DEB7D6F42}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{C9E80261-E6D3-4040-93D4-825DEB7D6F42}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -15044,7 +17302,7 @@
               <xdr:cNvPr id="59" name="그룹 58">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{85B853CB-E52A-45BA-85E6-D16F6AB15B52}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{85B853CB-E52A-45BA-85E6-D16F6AB15B52}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15063,7 +17321,7 @@
                 <xdr:cNvPr id="87" name="그룹 86">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{953A95F9-2BD6-45FD-8DE2-3537B4B13E80}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{953A95F9-2BD6-45FD-8DE2-3537B4B13E80}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -15085,7 +17343,7 @@
                   <xdr:cNvPr id="89" name="타원 88">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6635DF96-6975-4886-8002-FF6837776B6D}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{6635DF96-6975-4886-8002-FF6837776B6D}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -15228,7 +17486,7 @@
                   <xdr:cNvPr id="90" name="직사각형 89">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{65827721-657A-4094-9BA9-CB801B4BD185}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{65827721-657A-4094-9BA9-CB801B4BD185}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -15372,7 +17630,7 @@
                 <xdr:cNvPr id="88" name="타원 87">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F8FF3D25-FC02-425D-B04D-58A3A74E093C}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{F8FF3D25-FC02-425D-B04D-58A3A74E093C}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -15518,7 +17776,7 @@
               <xdr:cNvPr id="60" name="그룹 59">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{166D158B-1233-48D1-A2D9-B66CD6EA715A}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{166D158B-1233-48D1-A2D9-B66CD6EA715A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -15537,7 +17795,7 @@
                 <xdr:cNvPr id="83" name="그룹 82">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{247687D5-8474-4FCA-A201-EDB157623B1D}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{247687D5-8474-4FCA-A201-EDB157623B1D}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -15559,7 +17817,7 @@
                   <xdr:cNvPr id="85" name="타원 84">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B011BC75-C17E-41E3-96C4-3B86AEEB4D9A}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B011BC75-C17E-41E3-96C4-3B86AEEB4D9A}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -15702,7 +17960,7 @@
                   <xdr:cNvPr id="86" name="직사각형 85">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{A38F1A25-DADB-4D8E-AB70-836DF11A2933}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{A38F1A25-DADB-4D8E-AB70-836DF11A2933}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -15846,7 +18104,7 @@
                 <xdr:cNvPr id="84" name="타원 83">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B8BAB922-372B-4876-BCA7-29D88BE4C1DB}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B8BAB922-372B-4876-BCA7-29D88BE4C1DB}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -15992,7 +18250,7 @@
               <xdr:cNvPr id="61" name="그룹 60">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6895CF68-058B-4731-B344-F2E3EDF4243F}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{6895CF68-058B-4731-B344-F2E3EDF4243F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16011,7 +18269,7 @@
                 <xdr:cNvPr id="79" name="그룹 78">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{B9041589-F9C4-4EBA-A484-A67363BB3845}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{B9041589-F9C4-4EBA-A484-A67363BB3845}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -16033,7 +18291,7 @@
                   <xdr:cNvPr id="81" name="타원 80">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{151B68C0-CFEB-414D-A8E1-A6B5A5459FD7}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{151B68C0-CFEB-414D-A8E1-A6B5A5459FD7}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -16176,7 +18434,7 @@
                   <xdr:cNvPr id="82" name="직사각형 81">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{43364CD2-2EDB-4C94-A481-593133E83893}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{43364CD2-2EDB-4C94-A481-593133E83893}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -16320,7 +18578,7 @@
                 <xdr:cNvPr id="80" name="타원 79">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{9BC5C51F-1C70-4FB9-8A54-D419E62AD6AA}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{9BC5C51F-1C70-4FB9-8A54-D419E62AD6AA}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -16466,7 +18724,7 @@
               <xdr:cNvPr id="62" name="그룹 61">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{0A5C28EA-6599-491C-AAA3-9B6C95A1A5FA}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{0A5C28EA-6599-491C-AAA3-9B6C95A1A5FA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16485,7 +18743,7 @@
                 <xdr:cNvPr id="75" name="그룹 74">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{128BF59A-5392-4FF6-9F91-B7F2CA263FDC}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{128BF59A-5392-4FF6-9F91-B7F2CA263FDC}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -16507,7 +18765,7 @@
                   <xdr:cNvPr id="77" name="타원 76">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{678C8BBF-0923-4FA2-8C12-1D9088A7CC6D}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{678C8BBF-0923-4FA2-8C12-1D9088A7CC6D}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -16650,7 +18908,7 @@
                   <xdr:cNvPr id="78" name="직사각형 77">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{BEE86A38-2359-4426-89DC-296CB556F9E0}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{BEE86A38-2359-4426-89DC-296CB556F9E0}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -16794,7 +19052,7 @@
                 <xdr:cNvPr id="76" name="타원 75">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{14049512-406D-4419-9CFD-1E1D03CE6FB3}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{14049512-406D-4419-9CFD-1E1D03CE6FB3}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -16940,7 +19198,7 @@
               <xdr:cNvPr id="63" name="그룹 62">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{41D373B4-B1AE-4DC4-976B-B9CFEEEEE4DA}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{41D373B4-B1AE-4DC4-976B-B9CFEEEEE4DA}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16959,7 +19217,7 @@
                 <xdr:cNvPr id="71" name="그룹 70">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{07411238-6669-4D16-9AE2-9FDB4EAE2FAC}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{07411238-6669-4D16-9AE2-9FDB4EAE2FAC}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -16981,7 +19239,7 @@
                   <xdr:cNvPr id="73" name="타원 72">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{BB94C537-0CD1-40EC-BC4B-E3147D887ED3}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{BB94C537-0CD1-40EC-BC4B-E3147D887ED3}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -17124,7 +19382,7 @@
                   <xdr:cNvPr id="74" name="직사각형 73">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4FF1F776-7445-44D0-B6EF-52E2A78C1A73}"/>
+                        <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4FF1F776-7445-44D0-B6EF-52E2A78C1A73}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -17268,7 +19526,7 @@
                 <xdr:cNvPr id="72" name="타원 71">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{DF1A169A-E958-431E-AD44-2443A9E2CA3C}"/>
+                      <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{DF1A169A-E958-431E-AD44-2443A9E2CA3C}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -17414,7 +19672,7 @@
               <xdr:cNvPr id="64" name="화살표: 왼쪽/오른쪽 82">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5627A696-6989-4A7B-B0A7-80111552FF7D}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{5627A696-6989-4A7B-B0A7-80111552FF7D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17576,7 +19834,7 @@
               <xdr:cNvPr id="65" name="TextBox 83">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1920F719-EDC7-407B-93F9-54BB8A773104}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1920F719-EDC7-407B-93F9-54BB8A773104}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17743,7 +20001,7 @@
               <xdr:cNvPr id="66" name="TextBox 84">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1630B7A7-7331-4F8E-848F-AA5FC8A4755D}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1630B7A7-7331-4F8E-848F-AA5FC8A4755D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17910,7 +20168,7 @@
               <xdr:cNvPr id="67" name="TextBox 85">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{183A89CA-DF60-46D5-A989-5E727AB3F853}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{183A89CA-DF60-46D5-A989-5E727AB3F853}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18061,7 +20319,7 @@
               <xdr:cNvPr id="68" name="TextBox 86">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1E98662D-C18D-4843-8F6E-84AF44450DC7}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{1E98662D-C18D-4843-8F6E-84AF44450DC7}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18228,7 +20486,7 @@
               <xdr:cNvPr id="69" name="TextBox 87">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3E6D1A8B-FC60-4F01-9054-E113213B0BAF}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{3E6D1A8B-FC60-4F01-9054-E113213B0BAF}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18395,7 +20653,7 @@
               <xdr:cNvPr id="70" name="TextBox 88">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{42C98EBD-A416-476A-985C-FCA297186A6C}"/>
+                    <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{42C98EBD-A416-476A-985C-FCA297186A6C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18880,8 +21138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18897,17 +21155,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D5:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18916,13 +21263,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18957,50 +21305,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E9:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/2205_금형요약_001/금형_001_개발목록초안_전완호_220525.xlsx
+++ b/2205_금형요약_001/금형_001_개발목록초안_전완호_220525.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>협업관리WEB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,46 @@
   </si>
   <si>
     <t>원본 Asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협업툴(유니티)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협업툴(유니티)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD 데이타변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금형데이타관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협업관리WEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인/회원가입/수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금형모델등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협업플랫폼서버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21155,99 +21195,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:G24"/>
+  <dimension ref="D7:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F41" t="s">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
         <v>8</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
         <v>7</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F49" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
         <v>3</v>
       </c>
     </row>
